--- a/data/trans_dic/P2A_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.5245118900813526</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3928199052395886</v>
+        <v>0.3928199052395885</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4750864793919473</v>
@@ -697,7 +697,7 @@
         <v>0.488678533522297</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3841409580499374</v>
+        <v>0.3841409580499373</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4066523723711005</v>
+        <v>0.4061830033674348</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4606105227559513</v>
+        <v>0.4563835878198142</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4109925716459238</v>
+        <v>0.4114003400489132</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3363367767640318</v>
+        <v>0.3353493449051219</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4541526241205994</v>
+        <v>0.4516543287314851</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4734483290221441</v>
+        <v>0.4796476482935683</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.466802770385835</v>
+        <v>0.4724800830406635</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3559796882463629</v>
+        <v>0.3570822725724793</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4394002951515129</v>
+        <v>0.4414158157448466</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4852060494750146</v>
+        <v>0.4770526215667862</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4521319544437845</v>
+        <v>0.4493716810923027</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3539106085486514</v>
+        <v>0.3549428359049072</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5003142640388581</v>
+        <v>0.5007061343477359</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5573866001886132</v>
+        <v>0.5638475298157752</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5109941128714767</v>
+        <v>0.5072807934126645</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4229650621474897</v>
+        <v>0.4203158785213429</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5661591191296205</v>
+        <v>0.5720724171030347</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.594900942838503</v>
+        <v>0.5912260041927985</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5746883125826852</v>
+        <v>0.5846226472172557</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4337394108349915</v>
+        <v>0.4308135197378485</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5126229042311108</v>
+        <v>0.5118203489360925</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5629828930515648</v>
+        <v>0.5580658934335102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5265084867096793</v>
+        <v>0.5248321712164538</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4130107626884857</v>
+        <v>0.4157839959066673</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.418783220168771</v>
+        <v>0.4194851575462972</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4863672073768065</v>
+        <v>0.4857381041485538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4392045532804085</v>
+        <v>0.4431824665111446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3018896084545923</v>
+        <v>0.2955908725477548</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5018052202807157</v>
+        <v>0.5063926493499397</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5757844842422649</v>
+        <v>0.5703464074430492</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4550074192253402</v>
+        <v>0.459304421973241</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3206078316271594</v>
+        <v>0.3213577385152411</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4733263807564773</v>
+        <v>0.4805375411227342</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5354134262251398</v>
+        <v>0.5442563338800939</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4677115091741615</v>
+        <v>0.4631211605731118</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3214739967867781</v>
+        <v>0.3207887277255555</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5267114791900204</v>
+        <v>0.5289379721766293</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5923283526077907</v>
+        <v>0.590511991452259</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5472985736356161</v>
+        <v>0.5514676916696147</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3904061931575558</v>
+        <v>0.3840920443280083</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6075210532513184</v>
+        <v>0.6080305590714491</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6774125488874517</v>
+        <v>0.6816463137268173</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.562195076610139</v>
+        <v>0.5661107545560051</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3979957947133852</v>
+        <v>0.4020512634106765</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5481727329322759</v>
+        <v>0.552957020913776</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.613868060386728</v>
+        <v>0.6174370430220429</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.542893513012129</v>
+        <v>0.5430305147347793</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3803970062988289</v>
+        <v>0.3797263108514818</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.586633830096834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3949165569232771</v>
+        <v>0.394916556923277</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6209890452988583</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4410844828913777</v>
+        <v>0.4434299814131786</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5474076365929639</v>
+        <v>0.5527206276476877</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5435109464522989</v>
+        <v>0.5418193822028611</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3505868913918696</v>
+        <v>0.3485971055794356</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5472131390390673</v>
+        <v>0.5526004434023873</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6449708522185692</v>
+        <v>0.6520694949876434</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5869314274012198</v>
+        <v>0.5839268652135824</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4446974427120471</v>
+        <v>0.445252909779257</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4794127858941523</v>
+        <v>0.4797761037896714</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5904463238210782</v>
+        <v>0.590531556781127</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5720928286054509</v>
+        <v>0.5642249071133036</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3893777894537785</v>
+        <v>0.3887445215111147</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5308815432828459</v>
+        <v>0.5280164052417912</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6298623665173886</v>
+        <v>0.6317576597363352</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6287895217114813</v>
+        <v>0.6272837906075026</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4432571260584875</v>
+        <v>0.4394335193865594</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6958466577670267</v>
+        <v>0.7032312709890397</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7645116786799231</v>
+        <v>0.7645671411402898</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7388990278035699</v>
+        <v>0.7347695002772079</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5675071517984253</v>
+        <v>0.566385157935249</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5539678530532276</v>
+        <v>0.560127817198244</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6594921339545208</v>
+        <v>0.6593466112094726</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6453654923258891</v>
+        <v>0.641471422019004</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4617588282161357</v>
+        <v>0.463073785900708</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.5560436309257315</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4271280989727681</v>
+        <v>0.4271280989727682</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.504106359739075</v>
+        <v>0.5019374118742044</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5572346011698243</v>
+        <v>0.5586588034168387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5209080287850352</v>
+        <v>0.5178100681007507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3997850978047764</v>
+        <v>0.3954282013020835</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5849441237670739</v>
+        <v>0.5832223818759281</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6093229929143271</v>
+        <v>0.6133676803309707</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5276384482900416</v>
+        <v>0.5291488010195078</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3986120407071354</v>
+        <v>0.3975502551485577</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5415128967516741</v>
+        <v>0.5428653534211086</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5922045396906686</v>
+        <v>0.5914717944093947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5331431228181225</v>
+        <v>0.5318609118880665</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4060060301966218</v>
+        <v>0.4060203853773757</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5625944064221021</v>
+        <v>0.5594503372466691</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6162683528804852</v>
+        <v>0.6182008075892277</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5789243010533248</v>
+        <v>0.5786152384755733</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4628174039602972</v>
+        <v>0.4579182457412586</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6555603000251939</v>
+        <v>0.6572151773901542</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6862744388695959</v>
+        <v>0.685152852612309</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5980212660777391</v>
+        <v>0.5980357842026648</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4558675135703459</v>
+        <v>0.4557351601096435</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5863330025101829</v>
+        <v>0.5854449991500962</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.635555876659132</v>
+        <v>0.6376843830991358</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5765865768776801</v>
+        <v>0.5771652103913587</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4483926101768483</v>
+        <v>0.4491337173735082</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5657526551721546</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4393574694479021</v>
+        <v>0.4393574694479019</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6523220977337203</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4687420944932599</v>
+        <v>0.4751340903031013</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.543398080165694</v>
+        <v>0.5463868391832477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.524332045264037</v>
+        <v>0.5263051078111376</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.395886183310791</v>
+        <v>0.3935293956841178</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.61029609247456</v>
+        <v>0.6108343357898527</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7161080067699329</v>
+        <v>0.7144982787321937</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6993971953724086</v>
+        <v>0.7020401454573868</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4997519713030208</v>
+        <v>0.502994879346906</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.57094976171096</v>
+        <v>0.5696426076200499</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6567236056566851</v>
+        <v>0.6578669034480582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6303284260268011</v>
+        <v>0.629558181181197</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4646867959639317</v>
+        <v>0.4678528707043069</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.57973115458229</v>
+        <v>0.583416248393535</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6294572242210236</v>
+        <v>0.6328384266285635</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.602289329834372</v>
+        <v>0.6067912943341638</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4851264557900129</v>
+        <v>0.486828082001044</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6899415930243346</v>
+        <v>0.6927674999347864</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7808438969203849</v>
+        <v>0.7798809182508858</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7638597049718028</v>
+        <v>0.7632412075529744</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5586938667399864</v>
+        <v>0.5667577405569623</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6364757559082691</v>
+        <v>0.6371824286895321</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7118243550201269</v>
+        <v>0.7112549287792336</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6824676931347377</v>
+        <v>0.6817173869272507</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5170762113476337</v>
+        <v>0.5184116576636539</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.6986511980132206</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5180234109996514</v>
+        <v>0.5180234109996515</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.6176364131147759</v>
@@ -1377,7 +1377,7 @@
         <v>0.6253273378831</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4597269026301752</v>
+        <v>0.4597269026301753</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2260801506909279</v>
+        <v>0.2252324853145655</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3219078353245888</v>
+        <v>0.3274423240078381</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2957250374850073</v>
+        <v>0.2921817081830743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1760578417597223</v>
+        <v>0.1746206868660364</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6740782169989389</v>
+        <v>0.6736926919595626</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.713664935338318</v>
+        <v>0.7103600170412732</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6669123502539286</v>
+        <v>0.6728380919827585</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4848667717752956</v>
+        <v>0.4851466623695737</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5945912890336181</v>
+        <v>0.5924553058889237</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6424155782191963</v>
+        <v>0.6434505370295964</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5986249321326435</v>
+        <v>0.597363555837068</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4271572148092471</v>
+        <v>0.4254466523076346</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3282763658054984</v>
+        <v>0.3201902386489841</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4431457470767494</v>
+        <v>0.4478544266579678</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.410631320573098</v>
+        <v>0.4034812388756573</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3446640036717541</v>
+        <v>0.3488284275099818</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7241237556161406</v>
+        <v>0.7239490415767564</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7650471376794974</v>
+        <v>0.7658909320454779</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7251892194311467</v>
+        <v>0.7283756949811366</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5506789221734205</v>
+        <v>0.5495773820943528</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6440633558336186</v>
+        <v>0.6424726611032209</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6956848154496109</v>
+        <v>0.6953042837277598</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.648676545637349</v>
+        <v>0.6522469553339014</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4926578235791413</v>
+        <v>0.4958122699267423</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4648851838362564</v>
+        <v>0.4651662630798902</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5375158542249091</v>
+        <v>0.5371114793626304</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5054838956244921</v>
+        <v>0.5063897582643637</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3754869555462185</v>
+        <v>0.3744608053477478</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.62246318289109</v>
+        <v>0.6222899642134287</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6761270556893515</v>
+        <v>0.6750445018701888</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6187250352855388</v>
+        <v>0.6212791787999141</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4495615563325325</v>
+        <v>0.4466149386082577</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5486638274787875</v>
+        <v>0.5488391901995657</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6133922833215454</v>
+        <v>0.6139103953151156</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5686083464988545</v>
+        <v>0.5692101924579358</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4172858464532287</v>
+        <v>0.4178207285087273</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4996029766367011</v>
+        <v>0.5001378362830602</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5721335339385485</v>
+        <v>0.5745883030166374</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5392624259984934</v>
+        <v>0.5401806694107405</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4102503980477367</v>
+        <v>0.4110026608919897</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6557538035896882</v>
+        <v>0.6540717679274141</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7064068011662402</v>
+        <v>0.7084263283881522</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6523350950293025</v>
+        <v>0.652335503766921</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4768810123377576</v>
+        <v>0.4775107390752518</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5728338682282754</v>
+        <v>0.5734760826141798</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6374463432412086</v>
+        <v>0.6376508810471444</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5931553278136795</v>
+        <v>0.5937158031392213</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4409041534568925</v>
+        <v>0.440867443445728</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>192662</v>
+        <v>192440</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>201384</v>
+        <v>199536</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>176354</v>
+        <v>176529</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>185193</v>
+        <v>184649</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>139280</v>
+        <v>138513</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>148878</v>
+        <v>150827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>162006</v>
+        <v>163977</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>173864</v>
+        <v>174403</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>342933</v>
+        <v>344506</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>364712</v>
+        <v>358584</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>350921</v>
+        <v>348778</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>367723</v>
+        <v>368796</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>237037</v>
+        <v>237223</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>243696</v>
+        <v>246520</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>219263</v>
+        <v>217670</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>232892</v>
+        <v>231433</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>173630</v>
+        <v>175443</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>187069</v>
+        <v>185913</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>199448</v>
+        <v>202896</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>211843</v>
+        <v>210414</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>400080</v>
+        <v>399454</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>423175</v>
+        <v>419479</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>408648</v>
+        <v>407347</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>429130</v>
+        <v>432012</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>153666</v>
+        <v>153923</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>203689</v>
+        <v>203426</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>165680</v>
+        <v>167180</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>145877</v>
+        <v>142833</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>186604</v>
+        <v>188310</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>194621</v>
+        <v>192783</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>169387</v>
+        <v>170987</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>135663</v>
+        <v>135980</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>349693</v>
+        <v>355021</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>405205</v>
+        <v>411898</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>350550</v>
+        <v>347109</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>291370</v>
+        <v>290748</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>193268</v>
+        <v>194085</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>248065</v>
+        <v>247305</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>206456</v>
+        <v>208029</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>188649</v>
+        <v>185598</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>225916</v>
+        <v>226105</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>228973</v>
+        <v>230404</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>209290</v>
+        <v>210748</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>168409</v>
+        <v>170125</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>404989</v>
+        <v>408524</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>464580</v>
+        <v>467281</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>406899</v>
+        <v>407001</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>344775</v>
+        <v>344167</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>239239</v>
+        <v>240512</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>344547</v>
+        <v>347891</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>283666</v>
+        <v>282783</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>165341</v>
+        <v>164403</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>91813</v>
+        <v>92716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>167776</v>
+        <v>169622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>97503</v>
+        <v>97004</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>83379</v>
+        <v>83484</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>340465</v>
+        <v>340723</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>525228</v>
+        <v>525304</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>393620</v>
+        <v>388207</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>256642</v>
+        <v>256225</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>287944</v>
+        <v>286390</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>396445</v>
+        <v>397638</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>328174</v>
+        <v>327388</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>209045</v>
+        <v>207242</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>116751</v>
+        <v>117990</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>198872</v>
+        <v>198886</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>122748</v>
+        <v>122062</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>106406</v>
+        <v>106196</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>393412</v>
+        <v>397787</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>586647</v>
+        <v>586518</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>444035</v>
+        <v>441355</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>304349</v>
+        <v>305216</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>624252</v>
+        <v>621566</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>645840</v>
+        <v>647491</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>598856</v>
+        <v>595294</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>452494</v>
+        <v>447563</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>417817</v>
+        <v>416587</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>467142</v>
+        <v>470243</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>435764</v>
+        <v>437011</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>343289</v>
+        <v>342375</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1057369</v>
+        <v>1060010</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1140389</v>
+        <v>1138978</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1053232</v>
+        <v>1050699</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>809192</v>
+        <v>809221</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>696680</v>
+        <v>692786</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>714261</v>
+        <v>716500</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>665553</v>
+        <v>665198</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>523837</v>
+        <v>518292</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>468257</v>
+        <v>469439</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>526137</v>
+        <v>525277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>493891</v>
+        <v>493903</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>392598</v>
+        <v>392484</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1144886</v>
+        <v>1143152</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1223869</v>
+        <v>1227968</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1139055</v>
+        <v>1140198</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>893671</v>
+        <v>895148</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>164320</v>
+        <v>166561</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>277457</v>
+        <v>278983</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>325456</v>
+        <v>326681</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>224849</v>
+        <v>223511</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>347107</v>
+        <v>347413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>545332</v>
+        <v>544106</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>516326</v>
+        <v>518277</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>415219</v>
+        <v>417913</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>524878</v>
+        <v>523676</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>835430</v>
+        <v>836884</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>856585</v>
+        <v>855538</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>650010</v>
+        <v>654439</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>203228</v>
+        <v>204519</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>321398</v>
+        <v>323125</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>373845</v>
+        <v>376639</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>275534</v>
+        <v>276501</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>392406</v>
+        <v>394013</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>594630</v>
+        <v>593896</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>563915</v>
+        <v>563458</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>464191</v>
+        <v>470891</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>585117</v>
+        <v>585766</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>905525</v>
+        <v>904800</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>927439</v>
+        <v>926420</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>723293</v>
+        <v>725161</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>67417</v>
+        <v>67165</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>85911</v>
+        <v>87388</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>84916</v>
+        <v>83899</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>41766</v>
+        <v>41425</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>841762</v>
+        <v>841280</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>791705</v>
+        <v>788039</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>721616</v>
+        <v>728028</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>409364</v>
+        <v>409600</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>919809</v>
+        <v>916505</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>884114</v>
+        <v>885538</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>819619</v>
+        <v>817892</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>461974</v>
+        <v>460124</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>97892</v>
+        <v>95481</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>118268</v>
+        <v>119524</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>117911</v>
+        <v>115858</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>81764</v>
+        <v>82752</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>904257</v>
+        <v>904039</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>848706</v>
+        <v>849642</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>784673</v>
+        <v>788121</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>464928</v>
+        <v>463998</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>996340</v>
+        <v>993880</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>957424</v>
+        <v>956901</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>888148</v>
+        <v>893037</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>532814</v>
+        <v>536225</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1520263</v>
+        <v>1521182</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1839331</v>
+        <v>1837947</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1711428</v>
+        <v>1714495</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1292605</v>
+        <v>1289072</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2102758</v>
+        <v>2102173</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2400336</v>
+        <v>2396492</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2185087</v>
+        <v>2194107</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1634333</v>
+        <v>1623621</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3647689</v>
+        <v>3648855</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4276592</v>
+        <v>4280205</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3933245</v>
+        <v>3937408</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2953495</v>
+        <v>2957280</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1633797</v>
+        <v>1635546</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1957789</v>
+        <v>1966189</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1825793</v>
+        <v>1828902</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1412277</v>
+        <v>1414867</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2215218</v>
+        <v>2209536</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2507832</v>
+        <v>2515002</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2303784</v>
+        <v>2303785</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1733650</v>
+        <v>1735939</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3808379</v>
+        <v>3812649</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>4444298</v>
+        <v>4445724</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>4103044</v>
+        <v>4106921</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>3120662</v>
+        <v>3120402</v>
       </c>
     </row>
     <row r="32">
